--- a/docs/examples/data/parsing/excel/MCM-41 N2 77.0.xlsx
+++ b/docs/examples/data/parsing/excel/MCM-41 N2 77.0.xlsx
@@ -1,99 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="CDD1712BA44DE703FC5E1583E1F3A91F46E7F44F" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{A7DFFD88-4D87-49AC-B19D-D8431465D349}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db51e40503aa05b1/Documents/PhD Documents/Python/pyGAPS/docs/examples/data/parsing/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{94B38FCF-ED8F-49F0-B1E3-711C0BAD6CE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="parser" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>(en °C)</t>
-  </si>
-  <si>
-    <t>(en K)</t>
-  </si>
-  <si>
-    <t>Pressure(bar)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Type manip</t>
   </si>
   <si>
     <t>Isotherme</t>
   </si>
   <si>
+    <t>Experience ou Simulation</t>
+  </si>
+  <si>
     <t>Experience</t>
   </si>
   <si>
-    <t>Experience ou Simulation</t>
-  </si>
-  <si>
-    <t>Type manip</t>
-  </si>
-  <si>
     <t>Date de l'expérience</t>
   </si>
   <si>
     <t>Nom de l'échantillon</t>
   </si>
   <si>
+    <t>MCM-41</t>
+  </si>
+  <si>
     <t>Lot de l'échantillon</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>Température d'activation (°C)</t>
   </si>
   <si>
     <t>Surnom de l'appareil</t>
   </si>
   <si>
+    <t>Triflex</t>
+  </si>
+  <si>
     <t>Température de l'expérience (K)</t>
   </si>
   <si>
     <t>Formule chimique du gaz</t>
   </si>
   <si>
+    <t>N2</t>
+  </si>
+  <si>
     <t>Surnom du contact</t>
   </si>
   <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Nom du labo</t>
+  </si>
+  <si>
+    <t>MADIREL</t>
+  </si>
+  <si>
     <t>Nom du projet</t>
   </si>
   <si>
-    <t>Nom du labo</t>
-  </si>
-  <si>
-    <t>MADIREL</t>
-  </si>
-  <si>
-    <t>MCM-41</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>Triflex</t>
-  </si>
-  <si>
-    <t>Loading(mmol/g)</t>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>loading(mmol/g)</t>
+  </si>
+  <si>
+    <t>pressure(bar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,28 +107,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,16 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,39 +137,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,44 +172,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -297,9 +259,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -355,830 +317,797 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86FBF66-7B00-4180-A0C3-29B7D4E53B57}">
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>77</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.389345</v>
+      </c>
+      <c r="B15">
         <v>7.0199999999999997E-6</v>
       </c>
-      <c r="B15">
-        <v>0.389345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.1532199999999999</v>
+      </c>
+      <c r="B16">
         <v>1.8699999999999999E-4</v>
       </c>
-      <c r="B16">
-        <v>1.1532199999999999</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17">
+        <v>1.8556600000000001</v>
+      </c>
+      <c r="B17">
         <v>1.67E-3</v>
       </c>
-      <c r="B17">
-        <v>1.8556600000000001</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18">
+        <v>2.4234900000000001</v>
+      </c>
+      <c r="B18">
         <v>7.2899999999999996E-3</v>
       </c>
-      <c r="B18">
-        <v>2.4234900000000001</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19">
+        <v>2.8378100000000002</v>
+      </c>
+      <c r="B19">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="B19">
-        <v>2.8378100000000002</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20">
+        <v>3.1353800000000001</v>
+      </c>
+      <c r="B20">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="B20">
-        <v>3.1353800000000001</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21">
+        <v>3.3674200000000001</v>
+      </c>
+      <c r="B21">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="B21">
-        <v>3.3674200000000001</v>
-      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22">
+        <v>3.5612900000000001</v>
+      </c>
+      <c r="B22">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="B22">
-        <v>3.5612900000000001</v>
-      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23">
+        <v>3.7301199999999999</v>
+      </c>
+      <c r="B23">
         <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="B23">
-        <v>3.7301199999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>3.8845299999999998</v>
+      </c>
+      <c r="B24">
         <v>0.110667</v>
-      </c>
-      <c r="B24">
-        <v>3.8845299999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>4.0282900000000001</v>
+      </c>
+      <c r="B25">
         <v>0.13125500000000001</v>
-      </c>
-      <c r="B25">
-        <v>4.0282900000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>4.1668000000000003</v>
+      </c>
+      <c r="B26">
         <v>0.15225</v>
-      </c>
-      <c r="B26">
-        <v>4.1668000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>4.3020100000000001</v>
+      </c>
+      <c r="B27">
         <v>0.17317199999999999</v>
-      </c>
-      <c r="B27">
-        <v>4.3020100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>4.4340700000000002</v>
+      </c>
+      <c r="B28">
         <v>0.193883</v>
-      </c>
-      <c r="B28">
-        <v>4.4340700000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>4.6373199999999999</v>
+      </c>
+      <c r="B29">
         <v>0.22600400000000001</v>
-      </c>
-      <c r="B29">
-        <v>4.6373199999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>4.8288099999999998</v>
+      </c>
+      <c r="B30">
         <v>0.25585400000000003</v>
-      </c>
-      <c r="B30">
-        <v>4.8288099999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>5.0316000000000001</v>
+      </c>
+      <c r="B31">
         <v>0.28642299999999998</v>
-      </c>
-      <c r="B31">
-        <v>5.0316000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>5.2452399999999999</v>
+      </c>
+      <c r="B32">
         <v>0.31680799999999998</v>
-      </c>
-      <c r="B32">
-        <v>5.2452399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>5.50617</v>
+      </c>
+      <c r="B33">
         <v>0.34723500000000002</v>
-      </c>
-      <c r="B33">
-        <v>5.50617</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>6.1349499999999999</v>
+      </c>
+      <c r="B34">
         <v>0.37679299999999999</v>
-      </c>
-      <c r="B34">
-        <v>6.1349499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>7.9412099999999999</v>
+      </c>
+      <c r="B35">
         <v>0.41103400000000001</v>
-      </c>
-      <c r="B35">
-        <v>7.9412099999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>8.7625600000000006</v>
+      </c>
+      <c r="B36">
         <v>0.45161499999999999</v>
-      </c>
-      <c r="B36">
-        <v>8.7625600000000006</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>8.9627199999999991</v>
+      </c>
+      <c r="B37">
         <v>0.47650199999999998</v>
-      </c>
-      <c r="B37">
-        <v>8.9627199999999991</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>9.0680700000000005</v>
+      </c>
+      <c r="B38">
         <v>0.49353200000000003</v>
-      </c>
-      <c r="B38">
-        <v>9.0680700000000005</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>9.22302</v>
+      </c>
+      <c r="B39">
         <v>0.53051800000000005</v>
-      </c>
-      <c r="B39">
-        <v>9.22302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>9.2982200000000006</v>
+      </c>
+      <c r="B40">
         <v>0.55994299999999997</v>
-      </c>
-      <c r="B40">
-        <v>9.2982200000000006</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>9.3611299999999993</v>
+      </c>
+      <c r="B41">
         <v>0.58917900000000001</v>
-      </c>
-      <c r="B41">
-        <v>9.3611299999999993</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>9.4262999999999995</v>
+      </c>
+      <c r="B42">
         <v>0.61988399999999999</v>
-      </c>
-      <c r="B42">
-        <v>9.4262999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>9.4892900000000004</v>
+      </c>
+      <c r="B43">
         <v>0.649308</v>
-      </c>
-      <c r="B43">
-        <v>9.4892900000000004</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>9.5580200000000008</v>
+      </c>
+      <c r="B44">
         <v>0.68003499999999995</v>
-      </c>
-      <c r="B44">
-        <v>9.5580200000000008</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>9.6284600000000005</v>
+      </c>
+      <c r="B45">
         <v>0.71003499999999997</v>
-      </c>
-      <c r="B45">
-        <v>9.6284600000000005</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>9.7028599999999994</v>
+      </c>
+      <c r="B46">
         <v>0.73980500000000005</v>
-      </c>
-      <c r="B46">
-        <v>9.7028599999999994</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>9.7837200000000006</v>
+      </c>
+      <c r="B47">
         <v>0.769679</v>
-      </c>
-      <c r="B47">
-        <v>9.7837200000000006</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>9.8721499999999995</v>
+      </c>
+      <c r="B48">
         <v>0.79943299999999995</v>
-      </c>
-      <c r="B48">
-        <v>9.8721499999999995</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>9.9724199999999996</v>
+      </c>
+      <c r="B49">
         <v>0.82926100000000003</v>
-      </c>
-      <c r="B49">
-        <v>9.9724199999999996</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>10.0898</v>
+      </c>
+      <c r="B50">
         <v>0.85948999999999998</v>
-      </c>
-      <c r="B50">
-        <v>10.0898</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>10.235099999999999</v>
+      </c>
+      <c r="B51">
         <v>0.88833600000000001</v>
-      </c>
-      <c r="B51">
-        <v>10.235099999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>10.447699999999999</v>
+      </c>
+      <c r="B52">
         <v>0.91839800000000005</v>
-      </c>
-      <c r="B52">
-        <v>10.447699999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>10.7866</v>
+      </c>
+      <c r="B53">
         <v>0.94518899999999995</v>
-      </c>
-      <c r="B53">
-        <v>10.7866</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>12.032500000000001</v>
+      </c>
+      <c r="B54">
         <v>0.97657499999999997</v>
-      </c>
-      <c r="B54">
-        <v>12.032500000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>13.088100000000001</v>
+      </c>
+      <c r="B55">
         <v>0.98445700000000003</v>
-      </c>
-      <c r="B55">
-        <v>13.088100000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>12.0923</v>
+      </c>
+      <c r="B56">
         <v>0.96509199999999995</v>
-      </c>
-      <c r="B56">
-        <v>12.0923</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>10.790800000000001</v>
+      </c>
+      <c r="B57">
         <v>0.93086899999999995</v>
-      </c>
-      <c r="B57">
-        <v>10.790800000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>10.397500000000001</v>
+      </c>
+      <c r="B58">
         <v>0.90036000000000005</v>
-      </c>
-      <c r="B58">
-        <v>10.397500000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>10.127800000000001</v>
+      </c>
+      <c r="B59">
         <v>0.85794599999999999</v>
-      </c>
-      <c r="B59">
-        <v>10.127800000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>10.0008</v>
+      </c>
+      <c r="B60">
         <v>0.82790399999999997</v>
-      </c>
-      <c r="B60">
-        <v>10.0008</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>9.9055900000000001</v>
+      </c>
+      <c r="B61">
         <v>0.80003000000000002</v>
-      </c>
-      <c r="B61">
-        <v>9.9055900000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>9.7898200000000006</v>
+      </c>
+      <c r="B62">
         <v>0.761104</v>
-      </c>
-      <c r="B62">
-        <v>9.7898200000000006</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>9.7203599999999994</v>
+      </c>
+      <c r="B63">
         <v>0.73522299999999996</v>
-      </c>
-      <c r="B63">
-        <v>9.7203599999999994</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>9.6367100000000008</v>
+      </c>
+      <c r="B64">
         <v>0.70158200000000004</v>
-      </c>
-      <c r="B64">
-        <v>9.6367100000000008</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>9.5745500000000003</v>
+      </c>
+      <c r="B65">
         <v>0.67464599999999997</v>
-      </c>
-      <c r="B65">
-        <v>9.5745500000000003</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>9.4956600000000009</v>
+      </c>
+      <c r="B66">
         <v>0.63934500000000005</v>
-      </c>
-      <c r="B66">
-        <v>9.4956600000000009</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>9.4429300000000005</v>
+      </c>
+      <c r="B67">
         <v>0.61451800000000001</v>
-      </c>
-      <c r="B67">
-        <v>9.4429300000000005</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>9.3764000000000003</v>
+      </c>
+      <c r="B68">
         <v>0.58265</v>
-      </c>
-      <c r="B68">
-        <v>9.3764000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>9.31419</v>
+      </c>
+      <c r="B69">
         <v>0.55307200000000001</v>
-      </c>
-      <c r="B69">
-        <v>9.31419</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>9.2608999999999995</v>
+      </c>
+      <c r="B70">
         <v>0.52812999999999999</v>
-      </c>
-      <c r="B70">
-        <v>9.2608999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>9.1959</v>
+      </c>
+      <c r="B71">
         <v>0.49816700000000003</v>
-      </c>
-      <c r="B71">
-        <v>9.1959</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>9.1254000000000008</v>
+      </c>
+      <c r="B72">
         <v>0.46956300000000001</v>
-      </c>
-      <c r="B72">
-        <v>9.1254000000000008</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>9.0323499999999992</v>
+      </c>
+      <c r="B73">
         <v>0.44063000000000002</v>
-      </c>
-      <c r="B73">
-        <v>9.0323499999999992</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>8.6624499999999998</v>
+      </c>
+      <c r="B74">
         <v>0.42239300000000002</v>
-      </c>
-      <c r="B74">
-        <v>8.6624499999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>7.2120800000000003</v>
+      </c>
+      <c r="B75">
         <v>0.394453</v>
-      </c>
-      <c r="B75">
-        <v>7.2120800000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>5.7637400000000003</v>
+      </c>
+      <c r="B76">
         <v>0.36246099999999998</v>
-      </c>
-      <c r="B76">
-        <v>5.7637400000000003</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>5.3939700000000004</v>
+      </c>
+      <c r="B77">
         <v>0.33307199999999998</v>
-      </c>
-      <c r="B77">
-        <v>5.3939700000000004</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>5.1339199999999998</v>
+      </c>
+      <c r="B78">
         <v>0.29842400000000002</v>
-      </c>
-      <c r="B78">
-        <v>5.1339199999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>4.9149500000000002</v>
+      </c>
+      <c r="B79">
         <v>0.26615699999999998</v>
-      </c>
-      <c r="B79">
-        <v>4.9149500000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>4.7140000000000004</v>
+      </c>
+      <c r="B80">
         <v>0.23513400000000001</v>
-      </c>
-      <c r="B80">
-        <v>4.7140000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>4.5204899999999997</v>
+      </c>
+      <c r="B81">
         <v>0.20461399999999999</v>
-      </c>
-      <c r="B81">
-        <v>4.5204899999999997</v>
       </c>
     </row>
   </sheetData>
